--- a/biology/Histoire de la zoologie et de la botanique/Jean_Linden/Jean_Linden.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Linden/Jean_Linden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Jules Linden, né le 3 février 1817 à Luxembourg et mort le 12 janvier 1898 à Bruxelles, est un botaniste, explorateur, horticulteur et homme d'affaires belge, spécialiste des orchidées, sur lesquels il écrit plusieurs ouvrages.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Linden étudie à l'Athénée Royal de Luxembourg jusqu'en 1834, où il part se former en sciences à l'Université libre de Bruxelles. En 1835, Jean Linden se fait connaître lorsque le gouvernement belge propose aux personnes du milieu universitaire une exploration de l'Amérique latine. Par conséquent, Jean Linden, Nicolas Funck (lb), et Auguste-Boniface Ghiesbreght (lb) quittent Anvers le 25 septembre 1835 pour Rio de Janeiro et arrivent au Brésil le 27 décembre. Ils y collectent des plantes et des animaux et retournent en Belgique en mars 1837. Ce voyage marque le début de la passion de Linden pour les orchidées.
 Six mois plus tard, en septembre 1837, le même trio part du Havre pour rejoindre La Havane en décembre. L'équipe explore Cuba et le Mexique, et collectent des animaux vivants et des plantes, jusqu'en 1840. Linden souffre de la fièvre jaune lorsqu'il se trouve aux alentours de Laguna de Términos.
@@ -549,7 +563,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">'Iresine lindenii (Amaranthaceae), Phalaenopsis lindenii (Orchidaceae) et Polyrrhiza lindenii, qui est aussi une orchidée, portent son nom.
 </t>
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L’Illustration horticole, journal spécial des serres et des jardins, Gand-Bruxelles, 1854–1884 (édité avec Charles Lemaire et Ambroise Verschaffelt. Impr. 1868-1896; lithographies : Alfred Goosens, P. De Pannemaeker et J. Goffart).
 Pescatorea - Iconographie des Orchidées, 1854-1860, Bruxelles, 1860
